--- a/PythonExcelBases.xlsx
+++ b/PythonExcelBases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github.com\Punkyherisson\PythonInExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7421B3E6-B717-4E62-A0B3-EC661B5FCA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{469E265E-EEFA-406F-AD0D-9FECD24857A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{760D4160-099F-4713-BE29-3DA00D78C5E6}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Source" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1451,7 +1452,7 @@
   <dimension ref="C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1472,7 +1473,7 @@
   <dimension ref="C2:Q23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,7 +1900,7 @@
   <dimension ref="D2:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2040,7 +2041,7 @@
   <dimension ref="B1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
